--- a/StrainMenu Creator/bin/Release/Generated.xlsx
+++ b/StrainMenu Creator/bin/Release/Generated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\source\repos\StrainMenu Creator\StrainMenu Creator\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A18FB-A016-407F-9F98-190202455AD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B81EB-5D92-4D3F-A702-2B49FB8EB9CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BBEC57AF-E876-4348-A0BF-72133E8375A3}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
-  <si>
-    <t>FX420</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Strain:</t>
   </si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Orange  --  CBD Heavy Hybrid</t>
+  </si>
+  <si>
+    <t>Bulk Grams</t>
   </si>
   <si>
     <t>OG18</t>
@@ -206,12 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="72"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -314,6 +308,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -445,64 +444,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -713,61 +712,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129109</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1071958</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C104B72-03EE-455A-AD10-13CE1278FD7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7672909" y="0"/>
-          <a:ext cx="3590799" cy="1800057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1069,22 +1013,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDE5258-D422-4EA7-88CA-705A4F6337F1}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="54.42578125" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" customWidth="1"/>
     <col min="10" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="1.35">
@@ -1092,10 +1037,10 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1127,31 +1072,31 @@
     </row>
     <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="19" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>4</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>5</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
@@ -1172,8 +1117,8 @@
       <c r="E4" s="34">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="79" t="s">
         <v>30</v>
       </c>
@@ -1205,8 +1150,8 @@
       <c r="E5" s="38">
         <v>0</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="51" t="s">
         <v>31</v>
       </c>
@@ -1238,8 +1183,8 @@
       <c r="E6" s="42">
         <v>9.6199999999999994E-2</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="43" t="s">
         <v>32</v>
       </c>
@@ -1271,8 +1216,8 @@
       <c r="E7" s="46">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="47" t="s">
         <v>33</v>
       </c>
@@ -1304,8 +1249,8 @@
       <c r="E8" s="50">
         <v>0</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="60" t="s">
         <v>34</v>
       </c>
@@ -1337,8 +1282,8 @@
       <c r="E9" s="46">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="47" t="s">
         <v>35</v>
       </c>
@@ -1370,8 +1315,8 @@
       <c r="E10" s="54">
         <v>0</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="43" t="s">
         <v>36</v>
       </c>
@@ -1403,8 +1348,8 @@
       <c r="E11" s="46">
         <v>0</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="51" t="s">
         <v>37</v>
       </c>
@@ -1436,8 +1381,8 @@
       <c r="E12" s="50">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="35" t="s">
         <v>38</v>
       </c>
@@ -1469,8 +1414,8 @@
       <c r="E13" s="58">
         <v>0.18099999999999999</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="51" t="s">
         <v>39</v>
       </c>
@@ -1502,8 +1447,8 @@
       <c r="E14" s="42">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="35" t="s">
         <v>40</v>
       </c>
@@ -1535,8 +1480,8 @@
       <c r="E15" s="46">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="47" t="s">
         <v>41</v>
       </c>
@@ -1568,8 +1513,8 @@
       <c r="E16" s="54">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="43" t="s">
         <v>42</v>
       </c>
@@ -1601,8 +1546,8 @@
       <c r="E17" s="63">
         <v>0</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="47" t="s">
         <v>43</v>
       </c>
@@ -1634,8 +1579,8 @@
       <c r="E18" s="68">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="43" t="s">
         <v>44</v>
       </c>
@@ -1667,8 +1612,8 @@
       <c r="E19" s="71">
         <v>0.1222</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="64" t="s">
         <v>45</v>
       </c>
@@ -1700,8 +1645,8 @@
       <c r="E20" s="74">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="43" t="s">
         <v>46</v>
       </c>
@@ -1733,12 +1678,12 @@
       <c r="E21" s="46">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1758,12 +1703,12 @@
       <c r="E22" s="50">
         <v>1.4E-3</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1783,12 +1728,12 @@
       <c r="E23" s="78">
         <v>0</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1800,8 +1745,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1811,15 +1756,17 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1830,15 +1777,13 @@
     </row>
     <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
-      <c r="B26" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="23" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="2"/>
@@ -1851,14 +1796,12 @@
     </row>
     <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
-      <c r="B27" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="25" t="s">
         <v>7</v>
       </c>
@@ -1872,16 +1815,14 @@
     </row>
     <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A28" s="3"/>
-      <c r="B28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1893,16 +1834,14 @@
     </row>
     <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A29" s="3"/>
-      <c r="B29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="27" t="s">
-        <v>10</v>
+      <c r="B29" s="3"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1913,15 +1852,13 @@
     </row>
     <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
-      <c r="B30" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1937,7 +1874,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1951,21 +1888,21 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1977,6 +1914,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/StrainMenu Creator/bin/Release/Generated.xlsx
+++ b/StrainMenu Creator/bin/Release/Generated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\source\repos\StrainMenu Creator\StrainMenu Creator\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B81EB-5D92-4D3F-A702-2B49FB8EB9CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB8DD8E-617A-4FFC-BF2C-C88608238C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BBEC57AF-E876-4348-A0BF-72133E8375A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Strain:</t>
   </si>
@@ -60,112 +60,115 @@
     <t>Bulk Grams</t>
   </si>
   <si>
-    <t>OG18</t>
-  </si>
-  <si>
-    <t>Zkittlez</t>
-  </si>
-  <si>
-    <t>Lemon G</t>
-  </si>
-  <si>
-    <t>The Mountain</t>
-  </si>
-  <si>
-    <t>Blue Dream</t>
-  </si>
-  <si>
-    <t>Powder Puff</t>
-  </si>
-  <si>
-    <t>Lavender</t>
-  </si>
-  <si>
-    <t>Kosh Dawg</t>
-  </si>
-  <si>
-    <t>Orange ACDC</t>
-  </si>
-  <si>
-    <t>Grape Cheesecake</t>
-  </si>
-  <si>
-    <t>Mega Jackpot</t>
-  </si>
-  <si>
-    <t>Green Goddess</t>
-  </si>
-  <si>
-    <t>Banana Split</t>
-  </si>
-  <si>
-    <t>Adak</t>
-  </si>
-  <si>
-    <t>CBD Nordle</t>
-  </si>
-  <si>
-    <t>Dosido</t>
-  </si>
-  <si>
-    <t>Jack &amp; Cheese</t>
-  </si>
-  <si>
-    <t>Big Smooth</t>
-  </si>
-  <si>
-    <t>key Lime Pie</t>
-  </si>
-  <si>
-    <t>Grape Valley Kush</t>
-  </si>
-  <si>
-    <t>Mendo Breath</t>
-  </si>
-  <si>
-    <t>Lezberado</t>
-  </si>
-  <si>
-    <t>Snowman Cookies</t>
-  </si>
-  <si>
-    <t>Strawberry Banana</t>
-  </si>
-  <si>
-    <t>Ogre</t>
-  </si>
-  <si>
-    <t>Poison Sunset</t>
-  </si>
-  <si>
-    <t>Cookies &amp; Cream</t>
-  </si>
-  <si>
-    <t>Black Diamond</t>
-  </si>
-  <si>
-    <t>Afgoo</t>
-  </si>
-  <si>
-    <t>Junior Mints</t>
-  </si>
-  <si>
-    <t>Black Jack</t>
-  </si>
-  <si>
-    <t>Yesterdays Paper</t>
-  </si>
-  <si>
-    <t>White 99</t>
-  </si>
-  <si>
-    <t>Sweet Thang #7</t>
-  </si>
-  <si>
-    <t>Hawaiian Dutch</t>
-  </si>
-  <si>
-    <t>J1</t>
+    <t>1: OG18</t>
+  </si>
+  <si>
+    <t>2: Zkittlez</t>
+  </si>
+  <si>
+    <t>3: Lemon G</t>
+  </si>
+  <si>
+    <t>4: The Mountain</t>
+  </si>
+  <si>
+    <t>5: Blue Dream</t>
+  </si>
+  <si>
+    <t>6: Powder Puff</t>
+  </si>
+  <si>
+    <t>7: Lavender</t>
+  </si>
+  <si>
+    <t>8: Kosh Dawg</t>
+  </si>
+  <si>
+    <t>9: Powder Puff</t>
+  </si>
+  <si>
+    <t>10: Orange ACDC</t>
+  </si>
+  <si>
+    <t>11: Grape Cheesecake</t>
+  </si>
+  <si>
+    <t>12: Mega Jackpot</t>
+  </si>
+  <si>
+    <t>13: Green Goddess</t>
+  </si>
+  <si>
+    <t>14: Banana Split</t>
+  </si>
+  <si>
+    <t>15: Adak</t>
+  </si>
+  <si>
+    <t>16: CBD Nordle</t>
+  </si>
+  <si>
+    <t>17: Dosido</t>
+  </si>
+  <si>
+    <t>18: Jack &amp; Cheese</t>
+  </si>
+  <si>
+    <t>19: Big Smooth</t>
+  </si>
+  <si>
+    <t>20: key Lime Pie</t>
+  </si>
+  <si>
+    <t>21: Grape Valley Kush</t>
+  </si>
+  <si>
+    <t>22: Mendo Breath</t>
+  </si>
+  <si>
+    <t>23: Lezberado</t>
+  </si>
+  <si>
+    <t>24: Snowman Cookies</t>
+  </si>
+  <si>
+    <t>25: Strawberry Banana</t>
+  </si>
+  <si>
+    <t>26: Ogre</t>
+  </si>
+  <si>
+    <t>27: Poison Sunset</t>
+  </si>
+  <si>
+    <t>28: Cookies &amp; Cream</t>
+  </si>
+  <si>
+    <t>29: Black Diamond</t>
+  </si>
+  <si>
+    <t>30: Afgoo</t>
+  </si>
+  <si>
+    <t>31: Junior Mints</t>
+  </si>
+  <si>
+    <t>32: Black Jack</t>
+  </si>
+  <si>
+    <t>33: Yesterdays Paper</t>
+  </si>
+  <si>
+    <t>34: White 99</t>
+  </si>
+  <si>
+    <t>35: Sweet Thang #7</t>
+  </si>
+  <si>
+    <t>36: Hawaiian Dutch</t>
+  </si>
+  <si>
+    <t>37: J1</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="80">
         <v>9.6</v>
@@ -1153,7 +1156,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="59">
         <v>9.6</v>
@@ -1186,7 +1189,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="83">
         <v>9.6</v>
@@ -1219,7 +1222,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="72">
         <v>12</v>
@@ -1252,7 +1255,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="84">
         <v>12</v>
@@ -1285,7 +1288,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="72">
         <v>12</v>
@@ -1318,7 +1321,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" s="44">
         <v>12</v>
@@ -1351,7 +1354,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="52">
         <v>12</v>
@@ -1370,7 +1373,7 @@
     <row r="12" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
       <c r="B12" s="47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="48">
         <v>6</v>
@@ -1384,7 +1387,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="36">
         <v>12</v>
@@ -1403,7 +1406,7 @@
     <row r="13" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A13" s="2"/>
       <c r="B13" s="55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="56">
         <v>6</v>
@@ -1417,7 +1420,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="59">
         <v>12</v>
@@ -1436,7 +1439,7 @@
     <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
       <c r="B14" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="40">
         <v>7.2</v>
@@ -1450,7 +1453,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="86">
         <v>12</v>
@@ -1469,7 +1472,7 @@
     <row r="15" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
       <c r="B15" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="44">
         <v>7.2</v>
@@ -1483,7 +1486,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="72">
         <v>12</v>
@@ -1502,7 +1505,7 @@
     <row r="16" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
       <c r="B16" s="51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="59">
         <v>7.2</v>
@@ -1516,7 +1519,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="83">
         <v>12</v>
@@ -1535,7 +1538,7 @@
     <row r="17" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
       <c r="B17" s="60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="61">
         <v>9.6</v>
@@ -1549,7 +1552,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" s="72">
         <v>12</v>
@@ -1568,7 +1571,7 @@
     <row r="18" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="59">
         <v>9.6</v>
@@ -1582,7 +1585,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="83">
         <v>12</v>
@@ -1601,7 +1604,7 @@
     <row r="19" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
       <c r="B19" s="55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="69">
         <v>9.6</v>
@@ -1615,7 +1618,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="65">
         <v>14.4</v>
@@ -1634,7 +1637,7 @@
     <row r="20" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A20" s="2"/>
       <c r="B20" s="47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="72">
         <v>9.6</v>
@@ -1648,7 +1651,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" s="83">
         <v>14.4</v>
@@ -1667,7 +1670,7 @@
     <row r="21" spans="1:15" ht="36" x14ac:dyDescent="0.5">
       <c r="A21" s="3"/>
       <c r="B21" s="43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="44">
         <v>9.6</v>
@@ -1692,7 +1695,7 @@
     <row r="22" spans="1:15" ht="36" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="72">
         <v>9.6</v>
@@ -1717,7 +1720,7 @@
     <row r="23" spans="1:15" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="76">
         <v>9.6</v>
